--- a/results/pvalue_SIDER_rare_transporter_AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_transporter_AUROCperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>14.963</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6.688</t>
+          <t>14.11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.277</t>
+          <t>12.493</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.911</t>
+          <t>17.732</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21.545</t>
+          <t>21.557</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21.292</t>
+          <t>21.302</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.008</t>
+          <t>24.019</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25.289</t>
+          <t>25.301</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>18.089</t>
+          <t>17.659</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
